--- a/Doc/excel/sceneNodeConfig.xlsx
+++ b/Doc/excel/sceneNodeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="10305"/>
+    <workbookView windowWidth="22470" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,7 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,6 +76,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -90,14 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +113,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,12 +159,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -148,8 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,54 +206,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +220,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,31 +328,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,127 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,20 +414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,32 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,6 +482,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="1" customWidth="1"/>
@@ -1065,14 +1065,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Doc/excel/sceneNodeConfig.xlsx
+++ b/Doc/excel/sceneNodeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22470" windowHeight="11205"/>
+    <workbookView windowWidth="21000" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,21 +64,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,8 +75,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +131,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,14 +166,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,52 +182,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,14 +191,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +220,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,163 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +411,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,15 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,21 +453,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,11 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +502,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/Doc/excel/sceneNodeConfig.xlsx
+++ b/Doc/excel/sceneNodeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10965"/>
+    <workbookView windowWidth="16545" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>关卡id[必要]</t>
   </si>
   <si>
+    <t>关卡名字，可以通过名字获取关卡数据</t>
+  </si>
+  <si>
     <t>所属场景</t>
   </si>
   <si>
     <t>节点名字列表</t>
   </si>
   <si>
-    <t>int</t>
+    <t>number</t>
   </si>
   <si>
     <t>string</t>
@@ -36,16 +39,31 @@
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>scene</t>
   </si>
   <si>
     <t>sceneName</t>
   </si>
   <si>
-    <t>export</t>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>Scene</t>
   </si>
   <si>
     <t>scene_debug</t>
+  </si>
+  <si>
+    <t>scene_1</t>
+  </si>
+  <si>
+    <t>scene_2</t>
+  </si>
+  <si>
+    <t>scene_3</t>
   </si>
 </sst>
 </file>
@@ -53,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +85,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -75,6 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -84,7 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -93,22 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,22 +193,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,67 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +238,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,25 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,133 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,6 +429,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,36 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -497,8 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.6666666666667" style="1" customWidth="1"/>
@@ -1032,7 +1050,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,38 +1060,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/excel/sceneNodeConfig.xlsx
+++ b/Doc/excel/sceneNodeConfig.xlsx
@@ -45,7 +45,7 @@
     <t>scene</t>
   </si>
   <si>
-    <t>sceneName</t>
+    <t>nodeName</t>
   </si>
   <si>
     <t>debug</t>
@@ -71,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,6 +86,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,6 +114,44 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -100,6 +159,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -109,33 +192,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,55 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,27 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,25 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,151 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +429,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +456,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,30 +481,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -503,10 +503,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -523,9 +521,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
